--- a/data/trans_dic/P78_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P78_2023-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>58,33; 90,24</t>
+          <t>60,64; 91,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>40,74; 55,55</t>
+          <t>40,27; 55,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>49,36; 64,36</t>
+          <t>49,59; 64,11</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>46,53; 79,18</t>
+          <t>45,62; 77,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>47,32; 59,42</t>
+          <t>47,55; 59,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>49,66; 62,48</t>
+          <t>50,59; 62,89</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>62,02; 88,86</t>
+          <t>62,29; 89,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>46,65; 61,36</t>
+          <t>46,59; 61,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>53,67; 66,33</t>
+          <t>53,87; 66,9</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>41,32; 85,36</t>
+          <t>40,52; 84,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,53; 62,15</t>
+          <t>46,81; 61,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,75; 64,49</t>
+          <t>49,53; 64,46</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>56,39; 91,35</t>
+          <t>56,24; 92,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>36,98; 57,99</t>
+          <t>35,53; 56,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>44,76; 63,29</t>
+          <t>44,0; 62,9</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>52,63; 81,42</t>
+          <t>50,5; 82,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>56,01; 69,04</t>
+          <t>55,41; 68,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>57,26; 70,13</t>
+          <t>57,17; 70,44</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>69,54; 91,34</t>
+          <t>70,35; 91,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,77; 67,47</t>
+          <t>17,08; 67,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,88; 72,7</t>
+          <t>25,04; 72,9</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>70,92; 91,17</t>
+          <t>70,96; 91,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>56,35; 64,53</t>
+          <t>55,67; 64,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>61,16; 68,81</t>
+          <t>60,64; 68,83</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>70,26; 81,19</t>
+          <t>70,46; 80,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>42,09; 58,32</t>
+          <t>42,58; 58,34</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>49,88; 63,0</t>
+          <t>49,45; 62,85</t>
         </is>
       </c>
     </row>
